--- a/data_voor_swing/aggregatietabellen/gemeente_treg_gem.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente_treg_gem.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TREG13_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
@@ -3412,9 +3412,19 @@
     </row>
     <row r="303" spans="1:2" s="0" outlineLevel="0">
       <c r="A303" s="23">
+        <v>99992</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>TREG99999_GEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="304" spans="1:2" s="0" outlineLevel="0">
+      <c r="A304" s="23">
         <v>99999</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B304" t="inlineStr">
         <is>
           <t>TREG99999_GEM</t>
         </is>

--- a/data_voor_swing/aggregatietabellen/gemeente_treg_gem.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente_treg_gem.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3410,26 +3410,6 @@
         </is>
       </c>
     </row>
-    <row r="303" spans="1:2" s="0" outlineLevel="0">
-      <c r="A303" s="23">
-        <v>99992</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>TREG99999_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="304" spans="1:2" s="0" outlineLevel="0">
-      <c r="A304" s="23">
-        <v>99999</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>TREG99999_GEM</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_voor_swing/aggregatietabellen/gemeente_treg_gem.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente_treg_gem.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,17 +442,17 @@
     </row>
     <row r="6" spans="1:2" s="0" outlineLevel="0">
       <c r="A6" s="23">
-        <v>11007</v>
+        <v>11008</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TREG13_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:2" s="0" outlineLevel="0">
       <c r="A7" s="23">
-        <v>11008</v>
+        <v>11009</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -462,57 +462,57 @@
     </row>
     <row r="8" spans="1:2" s="0" outlineLevel="0">
       <c r="A8" s="23">
-        <v>11009</v>
+        <v>11013</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG13_GEM</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:2" s="0" outlineLevel="0">
       <c r="A9" s="23">
-        <v>11013</v>
+        <v>11016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TREG13_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:2" s="0" outlineLevel="0">
       <c r="A10" s="23">
-        <v>11016</v>
+        <v>11018</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG14A_GEM</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:2" s="0" outlineLevel="0">
       <c r="A11" s="23">
-        <v>11018</v>
+        <v>11021</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TREG14A_GEM</t>
+          <t>TREG13_GEM</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:2" s="0" outlineLevel="0">
       <c r="A12" s="23">
-        <v>11021</v>
+        <v>11022</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TREG13_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:2" s="0" outlineLevel="0">
       <c r="A13" s="23">
-        <v>11022</v>
+        <v>11023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -522,17 +522,17 @@
     </row>
     <row r="14" spans="1:2" s="0" outlineLevel="0">
       <c r="A14" s="23">
-        <v>11023</v>
+        <v>11024</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG13_GEM</t>
         </is>
       </c>
     </row>
     <row r="15" spans="1:2" s="0" outlineLevel="0">
       <c r="A15" s="23">
-        <v>11024</v>
+        <v>11025</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
     </row>
     <row r="16" spans="1:2" s="0" outlineLevel="0">
       <c r="A16" s="23">
-        <v>11025</v>
+        <v>11029</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -552,37 +552,37 @@
     </row>
     <row r="17" spans="1:2" s="0" outlineLevel="0">
       <c r="A17" s="23">
-        <v>11029</v>
+        <v>11030</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TREG13_GEM</t>
+          <t>TREG14A_GEM</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:2" s="0" outlineLevel="0">
       <c r="A18" s="23">
-        <v>11030</v>
+        <v>11035</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TREG14A_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="19" spans="1:2" s="0" outlineLevel="0">
       <c r="A19" s="23">
-        <v>11035</v>
+        <v>11037</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG14A_GEM</t>
         </is>
       </c>
     </row>
     <row r="20" spans="1:2" s="0" outlineLevel="0">
       <c r="A20" s="23">
-        <v>11037</v>
+        <v>11038</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -592,17 +592,17 @@
     </row>
     <row r="21" spans="1:2" s="0" outlineLevel="0">
       <c r="A21" s="23">
-        <v>11038</v>
+        <v>11039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TREG14A_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="22" spans="1:2" s="0" outlineLevel="0">
       <c r="A22" s="23">
-        <v>11039</v>
+        <v>11040</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
     </row>
     <row r="23" spans="1:2" s="0" outlineLevel="0">
       <c r="A23" s="23">
-        <v>11040</v>
+        <v>11044</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
     </row>
     <row r="24" spans="1:2" s="0" outlineLevel="0">
       <c r="A24" s="23">
-        <v>11044</v>
+        <v>11050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
     </row>
     <row r="25" spans="1:2" s="0" outlineLevel="0">
       <c r="A25" s="23">
-        <v>11050</v>
+        <v>11052</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
     </row>
     <row r="26" spans="1:2" s="0" outlineLevel="0">
       <c r="A26" s="23">
-        <v>11052</v>
+        <v>11053</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
     </row>
     <row r="27" spans="1:2" s="0" outlineLevel="0">
       <c r="A27" s="23">
-        <v>11053</v>
+        <v>11054</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="28" spans="1:2" s="0" outlineLevel="0">
       <c r="A28" s="23">
-        <v>11054</v>
+        <v>11055</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
     </row>
     <row r="29" spans="1:2" s="0" outlineLevel="0">
       <c r="A29" s="23">
-        <v>11055</v>
+        <v>11057</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -682,17 +682,17 @@
     </row>
     <row r="30" spans="1:2" s="0" outlineLevel="0">
       <c r="A30" s="23">
-        <v>11056</v>
+        <v>12002</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TREG14A_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:2" s="0" outlineLevel="0">
       <c r="A31" s="23">
-        <v>11057</v>
+        <v>12005</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -702,57 +702,57 @@
     </row>
     <row r="32" spans="1:2" s="0" outlineLevel="0">
       <c r="A32" s="23">
-        <v>12002</v>
+        <v>12007</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG14A_GEM</t>
         </is>
       </c>
     </row>
     <row r="33" spans="1:2" s="0" outlineLevel="0">
       <c r="A33" s="23">
-        <v>12005</v>
+        <v>12009</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG13_GEM</t>
         </is>
       </c>
     </row>
     <row r="34" spans="1:2" s="0" outlineLevel="0">
       <c r="A34" s="23">
-        <v>12007</v>
+        <v>12014</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TREG14A_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="35" spans="1:2" s="0" outlineLevel="0">
       <c r="A35" s="23">
-        <v>12009</v>
+        <v>12021</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TREG13_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="36" spans="1:2" s="0" outlineLevel="0">
       <c r="A36" s="23">
-        <v>12014</v>
+        <v>12025</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG06M_GEM</t>
         </is>
       </c>
     </row>
     <row r="37" spans="1:2" s="0" outlineLevel="0">
       <c r="A37" s="23">
-        <v>12021</v>
+        <v>12026</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -762,67 +762,67 @@
     </row>
     <row r="38" spans="1:2" s="0" outlineLevel="0">
       <c r="A38" s="23">
-        <v>12025</v>
+        <v>12029</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TREG06M_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="39" spans="1:2" s="0" outlineLevel="0">
       <c r="A39" s="23">
-        <v>12026</v>
+        <v>12035</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG13_GEM</t>
         </is>
       </c>
     </row>
     <row r="40" spans="1:2" s="0" outlineLevel="0">
       <c r="A40" s="23">
-        <v>12029</v>
+        <v>12040</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG14A_GEM</t>
         </is>
       </c>
     </row>
     <row r="41" spans="1:2" s="0" outlineLevel="0">
       <c r="A41" s="23">
-        <v>12035</v>
+        <v>12041</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TREG13_GEM</t>
+          <t>TREG14A_GEM</t>
         </is>
       </c>
     </row>
     <row r="42" spans="1:2" s="0" outlineLevel="0">
       <c r="A42" s="23">
-        <v>12040</v>
+        <v>13001</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TREG14A_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="43" spans="1:2" s="0" outlineLevel="0">
       <c r="A43" s="23">
-        <v>12041</v>
+        <v>13002</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TREG14A_GEM</t>
+          <t>TREG01_GEM</t>
         </is>
       </c>
     </row>
     <row r="44" spans="1:2" s="0" outlineLevel="0">
       <c r="A44" s="23">
-        <v>13001</v>
+        <v>13003</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     </row>
     <row r="45" spans="1:2" s="0" outlineLevel="0">
       <c r="A45" s="23">
-        <v>13002</v>
+        <v>13004</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="46" spans="1:2" s="0" outlineLevel="0">
       <c r="A46" s="23">
-        <v>13003</v>
+        <v>13006</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
     </row>
     <row r="47" spans="1:2" s="0" outlineLevel="0">
       <c r="A47" s="23">
-        <v>13004</v>
+        <v>13008</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
     </row>
     <row r="48" spans="1:2" s="0" outlineLevel="0">
       <c r="A48" s="23">
-        <v>13006</v>
+        <v>13010</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
     </row>
     <row r="49" spans="1:2" s="0" outlineLevel="0">
       <c r="A49" s="23">
-        <v>13008</v>
+        <v>13011</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
     </row>
     <row r="50" spans="1:2" s="0" outlineLevel="0">
       <c r="A50" s="23">
-        <v>13010</v>
+        <v>13012</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="51" spans="1:2" s="0" outlineLevel="0">
       <c r="A51" s="23">
-        <v>13011</v>
+        <v>13013</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
     </row>
     <row r="52" spans="1:2" s="0" outlineLevel="0">
       <c r="A52" s="23">
-        <v>13012</v>
+        <v>13014</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="53" spans="1:2" s="0" outlineLevel="0">
       <c r="A53" s="23">
-        <v>13013</v>
+        <v>13016</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
     </row>
     <row r="54" spans="1:2" s="0" outlineLevel="0">
       <c r="A54" s="23">
-        <v>13014</v>
+        <v>13017</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
     </row>
     <row r="55" spans="1:2" s="0" outlineLevel="0">
       <c r="A55" s="23">
-        <v>13016</v>
+        <v>13019</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
     </row>
     <row r="56" spans="1:2" s="0" outlineLevel="0">
       <c r="A56" s="23">
-        <v>13017</v>
+        <v>13021</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     </row>
     <row r="57" spans="1:2" s="0" outlineLevel="0">
       <c r="A57" s="23">
-        <v>13019</v>
+        <v>13023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="58" spans="1:2" s="0" outlineLevel="0">
       <c r="A58" s="23">
-        <v>13021</v>
+        <v>13025</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
     </row>
     <row r="59" spans="1:2" s="0" outlineLevel="0">
       <c r="A59" s="23">
-        <v>13023</v>
+        <v>13029</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
     </row>
     <row r="60" spans="1:2" s="0" outlineLevel="0">
       <c r="A60" s="23">
-        <v>13025</v>
+        <v>13031</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
     </row>
     <row r="61" spans="1:2" s="0" outlineLevel="0">
       <c r="A61" s="23">
-        <v>13029</v>
+        <v>13035</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="62" spans="1:2" s="0" outlineLevel="0">
       <c r="A62" s="23">
-        <v>13031</v>
+        <v>13036</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="63" spans="1:2" s="0" outlineLevel="0">
       <c r="A63" s="23">
-        <v>13035</v>
+        <v>13037</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="64" spans="1:2" s="0" outlineLevel="0">
       <c r="A64" s="23">
-        <v>13036</v>
+        <v>13040</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" s="23">
-        <v>13037</v>
+        <v>13044</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="66" spans="1:2" s="0" outlineLevel="0">
       <c r="A66" s="23">
-        <v>13040</v>
+        <v>13046</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="67" spans="1:2" s="0" outlineLevel="0">
       <c r="A67" s="23">
-        <v>13044</v>
+        <v>13049</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="68" spans="1:2" s="0" outlineLevel="0">
       <c r="A68" s="23">
-        <v>13046</v>
+        <v>13053</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1072,27 +1072,27 @@
     </row>
     <row r="69" spans="1:2" s="0" outlineLevel="0">
       <c r="A69" s="23">
-        <v>13049</v>
+        <v>23002</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG03_GEM</t>
         </is>
       </c>
     </row>
     <row r="70" spans="1:2" s="0" outlineLevel="0">
       <c r="A70" s="23">
-        <v>13053</v>
+        <v>23003</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TREG01_GEM</t>
+          <t>TREG03_GEM</t>
         </is>
       </c>
     </row>
     <row r="71" spans="1:2" s="0" outlineLevel="0">
       <c r="A71" s="23">
-        <v>23002</v>
+        <v>23009</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="72" spans="1:2" s="0" outlineLevel="0">
       <c r="A72" s="23">
-        <v>23003</v>
+        <v>23016</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="73" spans="1:2" s="0" outlineLevel="0">
       <c r="A73" s="23">
-        <v>23009</v>
+        <v>23025</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="74" spans="1:2" s="0" outlineLevel="0">
       <c r="A74" s="23">
-        <v>23016</v>
+        <v>23027</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="75" spans="1:2" s="0" outlineLevel="0">
       <c r="A75" s="23">
-        <v>23023</v>
+        <v>23033</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="76" spans="1:2" s="0" outlineLevel="0">
       <c r="A76" s="23">
-        <v>23024</v>
+        <v>23038</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="77" spans="1:2" s="0" outlineLevel="0">
       <c r="A77" s="23">
-        <v>23025</v>
+        <v>23039</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="78" spans="1:2" s="0" outlineLevel="0">
       <c r="A78" s="23">
-        <v>23027</v>
+        <v>23044</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="79" spans="1:2" s="0" outlineLevel="0">
       <c r="A79" s="23">
-        <v>23032</v>
+        <v>23045</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="80" spans="1:2" s="0" outlineLevel="0">
       <c r="A80" s="23">
-        <v>23033</v>
+        <v>23047</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="81" spans="1:2" s="0" outlineLevel="0">
       <c r="A81" s="23">
-        <v>23038</v>
+        <v>23050</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="82" spans="1:2" s="0" outlineLevel="0">
       <c r="A82" s="23">
-        <v>23039</v>
+        <v>23052</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="83" spans="1:2" s="0" outlineLevel="0">
       <c r="A83" s="23">
-        <v>23044</v>
+        <v>23060</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="84" spans="1:2" s="0" outlineLevel="0">
       <c r="A84" s="23">
-        <v>23045</v>
+        <v>23062</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="85" spans="1:2" s="0" outlineLevel="0">
       <c r="A85" s="23">
-        <v>23047</v>
+        <v>23064</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="86" spans="1:2" s="0" outlineLevel="0">
       <c r="A86" s="23">
-        <v>23050</v>
+        <v>23077</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="87" spans="1:2" s="0" outlineLevel="0">
       <c r="A87" s="23">
-        <v>23052</v>
+        <v>23081</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="88" spans="1:2" s="0" outlineLevel="0">
       <c r="A88" s="23">
-        <v>23060</v>
+        <v>23086</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="89" spans="1:2" s="0" outlineLevel="0">
       <c r="A89" s="23">
-        <v>23062</v>
+        <v>23088</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="90" spans="1:2" s="0" outlineLevel="0">
       <c r="A90" s="23">
-        <v>23064</v>
+        <v>23094</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="91" spans="1:2" s="0" outlineLevel="0">
       <c r="A91" s="23">
-        <v>23077</v>
+        <v>23096</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="92" spans="1:2" s="0" outlineLevel="0">
       <c r="A92" s="23">
-        <v>23081</v>
+        <v>23097</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="93" spans="1:2" s="0" outlineLevel="0">
       <c r="A93" s="23">
-        <v>23086</v>
+        <v>23098</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="94" spans="1:2" s="0" outlineLevel="0">
       <c r="A94" s="23">
-        <v>23088</v>
+        <v>23099</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="95" spans="1:2" s="0" outlineLevel="0">
       <c r="A95" s="23">
-        <v>23094</v>
+        <v>23100</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="96" spans="1:2" s="0" outlineLevel="0">
       <c r="A96" s="23">
-        <v>23096</v>
+        <v>23101</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="97" spans="1:2" s="0" outlineLevel="0">
       <c r="A97" s="23">
-        <v>23097</v>
+        <v>23102</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="98" spans="1:2" s="0" outlineLevel="0">
       <c r="A98" s="23">
-        <v>23098</v>
+        <v>23103</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="99" spans="1:2" s="0" outlineLevel="0">
       <c r="A99" s="23">
-        <v>23099</v>
+        <v>23104</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="100" spans="1:2" s="0" outlineLevel="0">
       <c r="A100" s="23">
-        <v>23100</v>
+        <v>23105</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="101" spans="1:2" s="0" outlineLevel="0">
       <c r="A101" s="23">
-        <v>23101</v>
+        <v>23106</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1402,37 +1402,37 @@
     </row>
     <row r="102" spans="1:2" s="0" outlineLevel="0">
       <c r="A102" s="23">
-        <v>23102</v>
+        <v>24001</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG04_GEM</t>
         </is>
       </c>
     </row>
     <row r="103" spans="1:2" s="0" outlineLevel="0">
       <c r="A103" s="23">
-        <v>23103</v>
+        <v>24007</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG04_GEM</t>
         </is>
       </c>
     </row>
     <row r="104" spans="1:2" s="0" outlineLevel="0">
       <c r="A104" s="23">
-        <v>23104</v>
+        <v>24008</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG04_GEM</t>
         </is>
       </c>
     </row>
     <row r="105" spans="1:2" s="0" outlineLevel="0">
       <c r="A105" s="23">
-        <v>23105</v>
+        <v>24009</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="106" spans="1:2" s="0" outlineLevel="0">
       <c r="A106" s="23">
-        <v>24001</v>
+        <v>24011</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1452,17 +1452,17 @@
     </row>
     <row r="107" spans="1:2" s="0" outlineLevel="0">
       <c r="A107" s="23">
-        <v>24007</v>
+        <v>24014</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TREG04_GEM</t>
+          <t>TREG03_GEM</t>
         </is>
       </c>
     </row>
     <row r="108" spans="1:2" s="0" outlineLevel="0">
       <c r="A108" s="23">
-        <v>24008</v>
+        <v>24016</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1472,17 +1472,17 @@
     </row>
     <row r="109" spans="1:2" s="0" outlineLevel="0">
       <c r="A109" s="23">
-        <v>24009</v>
+        <v>24020</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG04_GEM</t>
         </is>
       </c>
     </row>
     <row r="110" spans="1:2" s="0" outlineLevel="0">
       <c r="A110" s="23">
-        <v>24011</v>
+        <v>24028</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="111" spans="1:2" s="0" outlineLevel="0">
       <c r="A111" s="23">
-        <v>24014</v>
+        <v>24033</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1502,17 +1502,17 @@
     </row>
     <row r="112" spans="1:2" s="0" outlineLevel="0">
       <c r="A112" s="23">
-        <v>24016</v>
+        <v>24038</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TREG04_GEM</t>
+          <t>TREG03_GEM</t>
         </is>
       </c>
     </row>
     <row r="113" spans="1:2" s="0" outlineLevel="0">
       <c r="A113" s="23">
-        <v>24020</v>
+        <v>24041</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="114" spans="1:2" s="0" outlineLevel="0">
       <c r="A114" s="23">
-        <v>24028</v>
+        <v>24043</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="115" spans="1:2" s="0" outlineLevel="0">
       <c r="A115" s="23">
-        <v>24033</v>
+        <v>24045</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="116" spans="1:2" s="0" outlineLevel="0">
       <c r="A116" s="23">
-        <v>24038</v>
+        <v>24048</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="117" spans="1:2" s="0" outlineLevel="0">
       <c r="A117" s="23">
-        <v>24041</v>
+        <v>24054</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1562,37 +1562,37 @@
     </row>
     <row r="118" spans="1:2" s="0" outlineLevel="0">
       <c r="A118" s="23">
-        <v>24043</v>
+        <v>24055</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TREG04_GEM</t>
+          <t>TREG03_GEM</t>
         </is>
       </c>
     </row>
     <row r="119" spans="1:2" s="0" outlineLevel="0">
       <c r="A119" s="23">
-        <v>24045</v>
+        <v>24059</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG04_GEM</t>
         </is>
       </c>
     </row>
     <row r="120" spans="1:2" s="0" outlineLevel="0">
       <c r="A120" s="23">
-        <v>24048</v>
+        <v>24062</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG06L_GEM</t>
         </is>
       </c>
     </row>
     <row r="121" spans="1:2" s="0" outlineLevel="0">
       <c r="A121" s="23">
-        <v>24054</v>
+        <v>24066</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="122" spans="1:2" s="0" outlineLevel="0">
       <c r="A122" s="23">
-        <v>24055</v>
+        <v>24086</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="123" spans="1:2" s="0" outlineLevel="0">
       <c r="A123" s="23">
-        <v>24059</v>
+        <v>24094</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -1622,17 +1622,17 @@
     </row>
     <row r="124" spans="1:2" s="0" outlineLevel="0">
       <c r="A124" s="23">
-        <v>24062</v>
+        <v>24104</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TREG06L_GEM</t>
+          <t>TREG03_GEM</t>
         </is>
       </c>
     </row>
     <row r="125" spans="1:2" s="0" outlineLevel="0">
       <c r="A125" s="23">
-        <v>24066</v>
+        <v>24107</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -1642,17 +1642,17 @@
     </row>
     <row r="126" spans="1:2" s="0" outlineLevel="0">
       <c r="A126" s="23">
-        <v>24086</v>
+        <v>24109</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG04_GEM</t>
         </is>
       </c>
     </row>
     <row r="127" spans="1:2" s="0" outlineLevel="0">
       <c r="A127" s="23">
-        <v>24094</v>
+        <v>24130</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -1662,17 +1662,17 @@
     </row>
     <row r="128" spans="1:2" s="0" outlineLevel="0">
       <c r="A128" s="23">
-        <v>24104</v>
+        <v>24133</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TREG03_GEM</t>
+          <t>TREG04_GEM</t>
         </is>
       </c>
     </row>
     <row r="129" spans="1:2" s="0" outlineLevel="0">
       <c r="A129" s="23">
-        <v>24107</v>
+        <v>24134</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="130" spans="1:2" s="0" outlineLevel="0">
       <c r="A130" s="23">
-        <v>24109</v>
+        <v>24135</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="131" spans="1:2" s="0" outlineLevel="0">
       <c r="A131" s="23">
-        <v>24130</v>
+        <v>24137</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -1702,47 +1702,47 @@
     </row>
     <row r="132" spans="1:2" s="0" outlineLevel="0">
       <c r="A132" s="23">
-        <v>24133</v>
+        <v>31003</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TREG04_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="133" spans="1:2" s="0" outlineLevel="0">
       <c r="A133" s="23">
-        <v>24134</v>
+        <v>31004</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TREG04_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="134" spans="1:2" s="0" outlineLevel="0">
       <c r="A134" s="23">
-        <v>24135</v>
+        <v>31005</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TREG04_GEM</t>
+          <t>TREG06B_GEM</t>
         </is>
       </c>
     </row>
     <row r="135" spans="1:2" s="0" outlineLevel="0">
       <c r="A135" s="23">
-        <v>24137</v>
+        <v>31006</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TREG04_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="136" spans="1:2" s="0" outlineLevel="0">
       <c r="A136" s="23">
-        <v>31003</v>
+        <v>31012</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -1752,27 +1752,27 @@
     </row>
     <row r="137" spans="1:2" s="0" outlineLevel="0">
       <c r="A137" s="23">
-        <v>31004</v>
+        <v>31022</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="138" spans="1:2" s="0" outlineLevel="0">
       <c r="A138" s="23">
-        <v>31005</v>
+        <v>31033</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TREG06B_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="139" spans="1:2" s="0" outlineLevel="0">
       <c r="A139" s="23">
-        <v>31006</v>
+        <v>31040</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="140" spans="1:2" s="0" outlineLevel="0">
       <c r="A140" s="23">
-        <v>31012</v>
+        <v>31042</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1792,57 +1792,57 @@
     </row>
     <row r="141" spans="1:2" s="0" outlineLevel="0">
       <c r="A141" s="23">
-        <v>31022</v>
+        <v>31043</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="142" spans="1:2" s="0" outlineLevel="0">
       <c r="A142" s="23">
-        <v>31033</v>
+        <v>32003</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="143" spans="1:2" s="0" outlineLevel="0">
       <c r="A143" s="23">
-        <v>31040</v>
+        <v>32006</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="144" spans="1:2" s="0" outlineLevel="0">
       <c r="A144" s="23">
-        <v>31042</v>
+        <v>32010</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="145" spans="1:2" s="0" outlineLevel="0">
       <c r="A145" s="23">
-        <v>31043</v>
+        <v>32011</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="146" spans="1:2" s="0" outlineLevel="0">
       <c r="A146" s="23">
-        <v>32003</v>
+        <v>32030</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="147" spans="1:2" s="0" outlineLevel="0">
       <c r="A147" s="23">
-        <v>32006</v>
+        <v>33011</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="148" spans="1:2" s="0" outlineLevel="0">
       <c r="A148" s="23">
-        <v>32010</v>
+        <v>33016</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="149" spans="1:2" s="0" outlineLevel="0">
       <c r="A149" s="23">
-        <v>32011</v>
+        <v>33021</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -1882,17 +1882,17 @@
     </row>
     <row r="150" spans="1:2" s="0" outlineLevel="0">
       <c r="A150" s="23">
-        <v>32030</v>
+        <v>33029</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="151" spans="1:2" s="0" outlineLevel="0">
       <c r="A151" s="23">
-        <v>33011</v>
+        <v>33037</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="152" spans="1:2" s="0" outlineLevel="0">
       <c r="A152" s="23">
-        <v>33016</v>
+        <v>33039</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="153" spans="1:2" s="0" outlineLevel="0">
       <c r="A153" s="23">
-        <v>33021</v>
+        <v>33040</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -1922,57 +1922,57 @@
     </row>
     <row r="154" spans="1:2" s="0" outlineLevel="0">
       <c r="A154" s="23">
-        <v>33029</v>
+        <v>33041</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="155" spans="1:2" s="0" outlineLevel="0">
       <c r="A155" s="23">
-        <v>33037</v>
+        <v>34002</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="156" spans="1:2" s="0" outlineLevel="0">
       <c r="A156" s="23">
-        <v>33039</v>
+        <v>34003</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="157" spans="1:2" s="0" outlineLevel="0">
       <c r="A157" s="23">
-        <v>33040</v>
+        <v>34009</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="158" spans="1:2" s="0" outlineLevel="0">
       <c r="A158" s="23">
-        <v>33041</v>
+        <v>34013</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="159" spans="1:2" s="0" outlineLevel="0">
       <c r="A159" s="23">
-        <v>34002</v>
+        <v>34022</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="160" spans="1:2" s="0" outlineLevel="0">
       <c r="A160" s="23">
-        <v>34003</v>
+        <v>34023</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="161" spans="1:2" s="0" outlineLevel="0">
       <c r="A161" s="23">
-        <v>34009</v>
+        <v>34025</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="162" spans="1:2" s="0" outlineLevel="0">
       <c r="A162" s="23">
-        <v>34013</v>
+        <v>34027</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="163" spans="1:2" s="0" outlineLevel="0">
       <c r="A163" s="23">
-        <v>34022</v>
+        <v>34040</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="164" spans="1:2" s="0" outlineLevel="0">
       <c r="A164" s="23">
-        <v>34023</v>
+        <v>34041</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="165" spans="1:2" s="0" outlineLevel="0">
       <c r="A165" s="23">
-        <v>34025</v>
+        <v>34042</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="166" spans="1:2" s="0" outlineLevel="0">
       <c r="A166" s="23">
-        <v>34027</v>
+        <v>34043</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2052,47 +2052,47 @@
     </row>
     <row r="167" spans="1:2" s="0" outlineLevel="0">
       <c r="A167" s="23">
-        <v>34040</v>
+        <v>35002</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="168" spans="1:2" s="0" outlineLevel="0">
       <c r="A168" s="23">
-        <v>34041</v>
+        <v>35005</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="169" spans="1:2" s="0" outlineLevel="0">
       <c r="A169" s="23">
-        <v>34042</v>
+        <v>35006</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="170" spans="1:2" s="0" outlineLevel="0">
       <c r="A170" s="23">
-        <v>34043</v>
+        <v>35011</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="171" spans="1:2" s="0" outlineLevel="0">
       <c r="A171" s="23">
-        <v>35002</v>
+        <v>35013</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="172" spans="1:2" s="0" outlineLevel="0">
       <c r="A172" s="23">
-        <v>35005</v>
+        <v>35014</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2112,67 +2112,67 @@
     </row>
     <row r="173" spans="1:2" s="0" outlineLevel="0">
       <c r="A173" s="23">
-        <v>35006</v>
+        <v>35029</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="174" spans="1:2" s="0" outlineLevel="0">
       <c r="A174" s="23">
-        <v>35011</v>
+        <v>36006</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="175" spans="1:2" s="0" outlineLevel="0">
       <c r="A175" s="23">
-        <v>35013</v>
+        <v>36007</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="176" spans="1:2" s="0" outlineLevel="0">
       <c r="A176" s="23">
-        <v>35014</v>
+        <v>36008</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="177" spans="1:2" s="0" outlineLevel="0">
       <c r="A177" s="23">
-        <v>35029</v>
+        <v>36010</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="178" spans="1:2" s="0" outlineLevel="0">
       <c r="A178" s="23">
-        <v>36006</v>
+        <v>36011</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="179" spans="1:2" s="0" outlineLevel="0">
       <c r="A179" s="23">
-        <v>36007</v>
+        <v>36012</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="180" spans="1:2" s="0" outlineLevel="0">
       <c r="A180" s="23">
-        <v>36008</v>
+        <v>36015</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -2192,27 +2192,27 @@
     </row>
     <row r="181" spans="1:2" s="0" outlineLevel="0">
       <c r="A181" s="23">
-        <v>36010</v>
+        <v>36019</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="182" spans="1:2" s="0" outlineLevel="0">
       <c r="A182" s="23">
-        <v>36011</v>
+        <v>37002</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="183" spans="1:2" s="0" outlineLevel="0">
       <c r="A183" s="23">
-        <v>36012</v>
+        <v>37010</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -2222,167 +2222,167 @@
     </row>
     <row r="184" spans="1:2" s="0" outlineLevel="0">
       <c r="A184" s="23">
-        <v>36015</v>
+        <v>37011</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="185" spans="1:2" s="0" outlineLevel="0">
       <c r="A185" s="23">
-        <v>36019</v>
+        <v>37017</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG08W_GEM</t>
         </is>
       </c>
     </row>
     <row r="186" spans="1:2" s="0" outlineLevel="0">
       <c r="A186" s="23">
-        <v>37002</v>
+        <v>37020</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="187" spans="1:2" s="0" outlineLevel="0">
       <c r="A187" s="23">
-        <v>37007</v>
+        <v>37021</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="188" spans="1:2" s="0" outlineLevel="0">
       <c r="A188" s="23">
-        <v>37010</v>
+        <v>37022</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG02_GEM</t>
         </is>
       </c>
     </row>
     <row r="189" spans="1:2" s="0" outlineLevel="0">
       <c r="A189" s="23">
-        <v>37011</v>
+        <v>38002</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="190" spans="1:2" s="0" outlineLevel="0">
       <c r="A190" s="23">
-        <v>37012</v>
+        <v>38008</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="191" spans="1:2" s="0" outlineLevel="0">
       <c r="A191" s="23">
-        <v>37015</v>
+        <v>38014</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="192" spans="1:2" s="0" outlineLevel="0">
       <c r="A192" s="23">
-        <v>37017</v>
+        <v>38016</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TREG08W_GEM</t>
+          <t>TREG07_GEM</t>
         </is>
       </c>
     </row>
     <row r="193" spans="1:2" s="0" outlineLevel="0">
       <c r="A193" s="23">
-        <v>37018</v>
+        <v>38025</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG18_GEM</t>
         </is>
       </c>
     </row>
     <row r="194" spans="1:2" s="0" outlineLevel="0">
       <c r="A194" s="23">
-        <v>37020</v>
+        <v>41002</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TREG02_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="195" spans="1:2" s="0" outlineLevel="0">
       <c r="A195" s="23">
-        <v>38002</v>
+        <v>41011</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="196" spans="1:2" s="0" outlineLevel="0">
       <c r="A196" s="23">
-        <v>38008</v>
+        <v>41018</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="197" spans="1:2" s="0" outlineLevel="0">
       <c r="A197" s="23">
-        <v>38014</v>
+        <v>41024</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="198" spans="1:2" s="0" outlineLevel="0">
       <c r="A198" s="23">
-        <v>38016</v>
+        <v>41027</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TREG07_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="199" spans="1:2" s="0" outlineLevel="0">
       <c r="A199" s="23">
-        <v>38025</v>
+        <v>41034</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TREG18_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="200" spans="1:2" s="0" outlineLevel="0">
       <c r="A200" s="23">
-        <v>41002</v>
+        <v>41048</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -2392,17 +2392,17 @@
     </row>
     <row r="201" spans="1:2" s="0" outlineLevel="0">
       <c r="A201" s="23">
-        <v>41011</v>
+        <v>41063</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="202" spans="1:2" s="0" outlineLevel="0">
       <c r="A202" s="23">
-        <v>41018</v>
+        <v>41081</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="203" spans="1:2" s="0" outlineLevel="0">
       <c r="A203" s="23">
-        <v>41024</v>
+        <v>41082</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -2422,17 +2422,17 @@
     </row>
     <row r="204" spans="1:2" s="0" outlineLevel="0">
       <c r="A204" s="23">
-        <v>41027</v>
+        <v>42003</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="205" spans="1:2" s="0" outlineLevel="0">
       <c r="A205" s="23">
-        <v>41034</v>
+        <v>42004</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="206" spans="1:2" s="0" outlineLevel="0">
       <c r="A206" s="23">
-        <v>41048</v>
+        <v>42006</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -2452,27 +2452,27 @@
     </row>
     <row r="207" spans="1:2" s="0" outlineLevel="0">
       <c r="A207" s="23">
-        <v>41063</v>
+        <v>42008</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="208" spans="1:2" s="0" outlineLevel="0">
       <c r="A208" s="23">
-        <v>41081</v>
+        <v>42010</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="209" spans="1:2" s="0" outlineLevel="0">
       <c r="A209" s="23">
-        <v>41082</v>
+        <v>42011</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -2482,17 +2482,17 @@
     </row>
     <row r="210" spans="1:2" s="0" outlineLevel="0">
       <c r="A210" s="23">
-        <v>42003</v>
+        <v>42023</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG17_GEM</t>
         </is>
       </c>
     </row>
     <row r="211" spans="1:2" s="0" outlineLevel="0">
       <c r="A211" s="23">
-        <v>42004</v>
+        <v>42025</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="212" spans="1:2" s="0" outlineLevel="0">
       <c r="A212" s="23">
-        <v>42006</v>
+        <v>42026</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="213" spans="1:2" s="0" outlineLevel="0">
       <c r="A213" s="23">
-        <v>42008</v>
+        <v>42028</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -2522,77 +2522,77 @@
     </row>
     <row r="214" spans="1:2" s="0" outlineLevel="0">
       <c r="A214" s="23">
-        <v>42010</v>
+        <v>43002</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG11_GEM</t>
         </is>
       </c>
     </row>
     <row r="215" spans="1:2" s="0" outlineLevel="0">
       <c r="A215" s="23">
-        <v>42011</v>
+        <v>43005</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG11_GEM</t>
         </is>
       </c>
     </row>
     <row r="216" spans="1:2" s="0" outlineLevel="0">
       <c r="A216" s="23">
-        <v>42023</v>
+        <v>43007</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG11_GEM</t>
         </is>
       </c>
     </row>
     <row r="217" spans="1:2" s="0" outlineLevel="0">
       <c r="A217" s="23">
-        <v>42025</v>
+        <v>43010</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG11_GEM</t>
         </is>
       </c>
     </row>
     <row r="218" spans="1:2" s="0" outlineLevel="0">
       <c r="A218" s="23">
-        <v>42026</v>
+        <v>43014</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG11_GEM</t>
         </is>
       </c>
     </row>
     <row r="219" spans="1:2" s="0" outlineLevel="0">
       <c r="A219" s="23">
-        <v>42028</v>
+        <v>43018</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG11_GEM</t>
         </is>
       </c>
     </row>
     <row r="220" spans="1:2" s="0" outlineLevel="0">
       <c r="A220" s="23">
-        <v>43002</v>
+        <v>44013</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TREG11_GEM</t>
+          <t>TREG14O_GEM</t>
         </is>
       </c>
     </row>
     <row r="221" spans="1:2" s="0" outlineLevel="0">
       <c r="A221" s="23">
-        <v>43005</v>
+        <v>44019</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -2602,47 +2602,47 @@
     </row>
     <row r="222" spans="1:2" s="0" outlineLevel="0">
       <c r="A222" s="23">
-        <v>43007</v>
+        <v>44020</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TREG11_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="223" spans="1:2" s="0" outlineLevel="0">
       <c r="A223" s="23">
-        <v>43010</v>
+        <v>44021</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TREG11_GEM</t>
+          <t>TREG06G_GEM</t>
         </is>
       </c>
     </row>
     <row r="224" spans="1:2" s="0" outlineLevel="0">
       <c r="A224" s="23">
-        <v>43014</v>
+        <v>44052</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TREG11_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="225" spans="1:2" s="0" outlineLevel="0">
       <c r="A225" s="23">
-        <v>43018</v>
+        <v>44064</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TREG11_GEM</t>
+          <t>TREG08O_GEM</t>
         </is>
       </c>
     </row>
     <row r="226" spans="1:2" s="0" outlineLevel="0">
       <c r="A226" s="23">
-        <v>44012</v>
+        <v>44081</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -2652,17 +2652,17 @@
     </row>
     <row r="227" spans="1:2" s="0" outlineLevel="0">
       <c r="A227" s="23">
-        <v>44013</v>
+        <v>44083</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG08O_GEM</t>
         </is>
       </c>
     </row>
     <row r="228" spans="1:2" s="0" outlineLevel="0">
       <c r="A228" s="23">
-        <v>44019</v>
+        <v>44084</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -2672,27 +2672,27 @@
     </row>
     <row r="229" spans="1:2" s="0" outlineLevel="0">
       <c r="A229" s="23">
-        <v>44020</v>
+        <v>44085</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG11_GEM</t>
         </is>
       </c>
     </row>
     <row r="230" spans="1:2" s="0" outlineLevel="0">
       <c r="A230" s="23">
-        <v>44021</v>
+        <v>44086</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TREG06G_GEM</t>
+          <t>TREG08O_GEM</t>
         </is>
       </c>
     </row>
     <row r="231" spans="1:2" s="0" outlineLevel="0">
       <c r="A231" s="23">
-        <v>44034</v>
+        <v>44087</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="232" spans="1:2" s="0" outlineLevel="0">
       <c r="A232" s="23">
-        <v>44040</v>
+        <v>44088</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -2712,37 +2712,37 @@
     </row>
     <row r="233" spans="1:2" s="0" outlineLevel="0">
       <c r="A233" s="23">
-        <v>44043</v>
+        <v>45035</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TREG14O_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="234" spans="1:2" s="0" outlineLevel="0">
       <c r="A234" s="23">
-        <v>44045</v>
+        <v>45041</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="235" spans="1:2" s="0" outlineLevel="0">
       <c r="A235" s="23">
-        <v>44048</v>
+        <v>45059</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TREG08O_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="236" spans="1:2" s="0" outlineLevel="0">
       <c r="A236" s="23">
-        <v>44052</v>
+        <v>45060</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -2752,237 +2752,237 @@
     </row>
     <row r="237" spans="1:2" s="0" outlineLevel="0">
       <c r="A237" s="23">
-        <v>44064</v>
+        <v>45061</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TREG08O_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="238" spans="1:2" s="0" outlineLevel="0">
       <c r="A238" s="23">
-        <v>44073</v>
+        <v>45062</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="239" spans="1:2" s="0" outlineLevel="0">
       <c r="A239" s="23">
-        <v>44081</v>
+        <v>45063</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TREG08O_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="240" spans="1:2" s="0" outlineLevel="0">
       <c r="A240" s="23">
-        <v>44083</v>
+        <v>45064</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TREG08O_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="241" spans="1:2" s="0" outlineLevel="0">
       <c r="A241" s="23">
-        <v>44084</v>
+        <v>45065</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TREG11_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="242" spans="1:2" s="0" outlineLevel="0">
       <c r="A242" s="23">
-        <v>44085</v>
+        <v>45068</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TREG11_GEM</t>
+          <t>TREG15_GEM</t>
         </is>
       </c>
     </row>
     <row r="243" spans="1:2" s="0" outlineLevel="0">
       <c r="A243" s="23">
-        <v>45035</v>
+        <v>46020</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG17_GEM</t>
         </is>
       </c>
     </row>
     <row r="244" spans="1:2" s="0" outlineLevel="0">
       <c r="A244" s="23">
-        <v>45041</v>
+        <v>46021</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG17_GEM</t>
         </is>
       </c>
     </row>
     <row r="245" spans="1:2" s="0" outlineLevel="0">
       <c r="A245" s="23">
-        <v>45059</v>
+        <v>46024</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG17_GEM</t>
         </is>
       </c>
     </row>
     <row r="246" spans="1:2" s="0" outlineLevel="0">
       <c r="A246" s="23">
-        <v>45060</v>
+        <v>46025</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG17_GEM</t>
         </is>
       </c>
     </row>
     <row r="247" spans="1:2" s="0" outlineLevel="0">
       <c r="A247" s="23">
-        <v>45061</v>
+        <v>46029</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG17_GEM</t>
         </is>
       </c>
     </row>
     <row r="248" spans="1:2" s="0" outlineLevel="0">
       <c r="A248" s="23">
-        <v>45062</v>
+        <v>46030</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG17_GEM</t>
         </is>
       </c>
     </row>
     <row r="249" spans="1:2" s="0" outlineLevel="0">
       <c r="A249" s="23">
-        <v>45063</v>
+        <v>71002</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="250" spans="1:2" s="0" outlineLevel="0">
       <c r="A250" s="23">
-        <v>45064</v>
+        <v>71004</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="251" spans="1:2" s="0" outlineLevel="0">
       <c r="A251" s="23">
-        <v>45065</v>
+        <v>71011</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="252" spans="1:2" s="0" outlineLevel="0">
       <c r="A252" s="23">
-        <v>45068</v>
+        <v>71016</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TREG15_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="253" spans="1:2" s="0" outlineLevel="0">
       <c r="A253" s="23">
-        <v>46003</v>
+        <v>71017</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="254" spans="1:2" s="0" outlineLevel="0">
       <c r="A254" s="23">
-        <v>46013</v>
+        <v>71020</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="255" spans="1:2" s="0" outlineLevel="0">
       <c r="A255" s="23">
-        <v>46014</v>
+        <v>71024</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="256" spans="1:2" s="0" outlineLevel="0">
       <c r="A256" s="23">
-        <v>46020</v>
+        <v>71034</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="257" spans="1:2" s="0" outlineLevel="0">
       <c r="A257" s="23">
-        <v>46021</v>
+        <v>71037</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="258" spans="1:2" s="0" outlineLevel="0">
       <c r="A258" s="23">
-        <v>46024</v>
+        <v>71045</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="259" spans="1:2" s="0" outlineLevel="0">
       <c r="A259" s="23">
-        <v>46025</v>
+        <v>71053</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TREG17_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="260" spans="1:2" s="0" outlineLevel="0">
       <c r="A260" s="23">
-        <v>71002</v>
+        <v>71066</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="261" spans="1:2" s="0" outlineLevel="0">
       <c r="A261" s="23">
-        <v>71004</v>
+        <v>71067</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -3002,17 +3002,17 @@
     </row>
     <row r="262" spans="1:2" s="0" outlineLevel="0">
       <c r="A262" s="23">
-        <v>71011</v>
+        <v>71070</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TREG05_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="263" spans="1:2" s="0" outlineLevel="0">
       <c r="A263" s="23">
-        <v>71016</v>
+        <v>71071</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -3022,17 +3022,17 @@
     </row>
     <row r="264" spans="1:2" s="0" outlineLevel="0">
       <c r="A264" s="23">
-        <v>71017</v>
+        <v>71072</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TREG05_GEM</t>
+          <t>TREG12_GEM</t>
         </is>
       </c>
     </row>
     <row r="265" spans="1:2" s="0" outlineLevel="0">
       <c r="A265" s="23">
-        <v>71020</v>
+        <v>72003</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -3042,27 +3042,27 @@
     </row>
     <row r="266" spans="1:2" s="0" outlineLevel="0">
       <c r="A266" s="23">
-        <v>71022</v>
+        <v>72004</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TREG12_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="267" spans="1:2" s="0" outlineLevel="0">
       <c r="A267" s="23">
-        <v>71024</v>
+        <v>72018</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG10_GEM</t>
         </is>
       </c>
     </row>
     <row r="268" spans="1:2" s="0" outlineLevel="0">
       <c r="A268" s="23">
-        <v>71034</v>
+        <v>72020</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -3072,37 +3072,37 @@
     </row>
     <row r="269" spans="1:2" s="0" outlineLevel="0">
       <c r="A269" s="23">
-        <v>71037</v>
+        <v>72021</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG10_GEM</t>
         </is>
       </c>
     </row>
     <row r="270" spans="1:2" s="0" outlineLevel="0">
       <c r="A270" s="23">
-        <v>71045</v>
+        <v>72030</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TREG05_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="271" spans="1:2" s="0" outlineLevel="0">
       <c r="A271" s="23">
-        <v>71053</v>
+        <v>72037</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TREG05_GEM</t>
+          <t>TREG09_GEM</t>
         </is>
       </c>
     </row>
     <row r="272" spans="1:2" s="0" outlineLevel="0">
       <c r="A272" s="23">
-        <v>71057</v>
+        <v>72038</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="273" spans="1:2" s="0" outlineLevel="0">
       <c r="A273" s="23">
-        <v>71066</v>
+        <v>72039</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -3122,17 +3122,17 @@
     </row>
     <row r="274" spans="1:2" s="0" outlineLevel="0">
       <c r="A274" s="23">
-        <v>71067</v>
+        <v>72041</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG10_GEM</t>
         </is>
       </c>
     </row>
     <row r="275" spans="1:2" s="0" outlineLevel="0">
       <c r="A275" s="23">
-        <v>71069</v>
+        <v>72042</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="276" spans="1:2" s="0" outlineLevel="0">
       <c r="A276" s="23">
-        <v>71070</v>
+        <v>72043</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -3152,259 +3152,109 @@
     </row>
     <row r="277" spans="1:2" s="0" outlineLevel="0">
       <c r="A277" s="23">
-        <v>72003</v>
+        <v>73001</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="278" spans="1:2" s="0" outlineLevel="0">
       <c r="A278" s="23">
-        <v>72004</v>
+        <v>73022</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="279" spans="1:2" s="0" outlineLevel="0">
       <c r="A279" s="23">
-        <v>72018</v>
+        <v>73028</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TREG10_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="280" spans="1:2" s="0" outlineLevel="0">
       <c r="A280" s="23">
-        <v>72020</v>
+        <v>73042</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG10_GEM</t>
         </is>
       </c>
     </row>
     <row r="281" spans="1:2" s="0" outlineLevel="0">
       <c r="A281" s="23">
-        <v>72021</v>
+        <v>73066</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TREG10_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="282" spans="1:2" s="0" outlineLevel="0">
       <c r="A282" s="23">
-        <v>72030</v>
+        <v>73098</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="283" spans="1:2" s="0" outlineLevel="0">
       <c r="A283" s="23">
-        <v>72037</v>
+        <v>73107</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG10_GEM</t>
         </is>
       </c>
     </row>
     <row r="284" spans="1:2" s="0" outlineLevel="0">
       <c r="A284" s="23">
-        <v>72038</v>
+        <v>73109</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG16_GEM</t>
         </is>
       </c>
     </row>
     <row r="285" spans="1:2" s="0" outlineLevel="0">
       <c r="A285" s="23">
-        <v>72039</v>
+        <v>73110</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TREG09_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="286" spans="1:2" s="0" outlineLevel="0">
       <c r="A286" s="23">
-        <v>72041</v>
+        <v>73111</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TREG10_GEM</t>
+          <t>TREG05_GEM</t>
         </is>
       </c>
     </row>
     <row r="287" spans="1:2" s="0" outlineLevel="0">
       <c r="A287" s="23">
-        <v>72042</v>
+        <v>99991</v>
       </c>
       <c r="B287" t="inlineStr">
-        <is>
-          <t>TREG09_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="288" spans="1:2" s="0" outlineLevel="0">
-      <c r="A288" s="23">
-        <v>72043</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>TREG09_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="289" spans="1:2" s="0" outlineLevel="0">
-      <c r="A289" s="23">
-        <v>73001</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="290" spans="1:2" s="0" outlineLevel="0">
-      <c r="A290" s="23">
-        <v>73006</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="291" spans="1:2" s="0" outlineLevel="0">
-      <c r="A291" s="23">
-        <v>73009</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="292" spans="1:2" s="0" outlineLevel="0">
-      <c r="A292" s="23">
-        <v>73022</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="293" spans="1:2" s="0" outlineLevel="0">
-      <c r="A293" s="23">
-        <v>73028</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="294" spans="1:2" s="0" outlineLevel="0">
-      <c r="A294" s="23">
-        <v>73032</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="295" spans="1:2" s="0" outlineLevel="0">
-      <c r="A295" s="23">
-        <v>73040</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="296" spans="1:2" s="0" outlineLevel="0">
-      <c r="A296" s="23">
-        <v>73042</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>TREG10_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="297" spans="1:2" s="0" outlineLevel="0">
-      <c r="A297" s="23">
-        <v>73066</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="298" spans="1:2" s="0" outlineLevel="0">
-      <c r="A298" s="23">
-        <v>73083</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="299" spans="1:2" s="0" outlineLevel="0">
-      <c r="A299" s="23">
-        <v>73098</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>TREG05_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="300" spans="1:2" s="0" outlineLevel="0">
-      <c r="A300" s="23">
-        <v>73107</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>TREG10_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="301" spans="1:2" s="0" outlineLevel="0">
-      <c r="A301" s="23">
-        <v>73109</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>TREG16_GEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="302" spans="1:2" s="0" outlineLevel="0">
-      <c r="A302" s="23">
-        <v>99991</v>
-      </c>
-      <c r="B302" t="inlineStr">
         <is>
           <t>TREG99991_GEM</t>
         </is>
